--- a/downloaded_files/ТДК-24-1.xlsx
+++ b/downloaded_files/ТДК-24-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28755" windowHeight="15135"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="15150"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>Расписание группы ТДК-24-1</t>
   </si>
@@ -27,37 +27,49 @@
     <t>Понедельник</t>
   </si>
   <si>
-    <t>(ТО) Обществознание</t>
-  </si>
-  <si>
-    <t>Юрина М.В.</t>
-  </si>
-  <si>
-    <t>У709</t>
-  </si>
-  <si>
-    <t>(ТО) Рус.яз.</t>
-  </si>
-  <si>
-    <t>Туварева Т.С.</t>
-  </si>
-  <si>
-    <t>А112</t>
-  </si>
-  <si>
-    <t>(ТО) Математика</t>
-  </si>
-  <si>
-    <t>Сивилькаева Ю.Ф.</t>
-  </si>
-  <si>
-    <t>У902</t>
+    <t>Физкультура</t>
+  </si>
+  <si>
+    <t>Габидуллина С.К.</t>
+  </si>
+  <si>
+    <t>С04</t>
+  </si>
+  <si>
+    <t>(ТО) Основы менедж.и маркетинга</t>
+  </si>
+  <si>
+    <t>Назарова О.Л.</t>
+  </si>
+  <si>
+    <t>Ин-1</t>
+  </si>
+  <si>
+    <t>(Пр) Основы менедж.и маркетинга</t>
   </si>
   <si>
     <t>Вторник</t>
   </si>
   <si>
-    <t>Ин.яз</t>
+    <t>(ТО) Основы предпринимательства</t>
+  </si>
+  <si>
+    <t>Балашова И.А.</t>
+  </si>
+  <si>
+    <t>У302</t>
+  </si>
+  <si>
+    <t>(Лаб) Прикладные комп.программы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артемьева А.И. </t>
+  </si>
+  <si>
+    <t>У309</t>
+  </si>
+  <si>
+    <t>Ин.яз (проф.)</t>
   </si>
   <si>
     <t>Ческидова О.А.</t>
@@ -66,37 +78,22 @@
     <t>У208</t>
   </si>
   <si>
-    <t>(Пр) Обществознание</t>
-  </si>
-  <si>
-    <t>У705</t>
-  </si>
-  <si>
-    <t>(Пр) Информатика</t>
-  </si>
-  <si>
-    <t>Корчагина М.Н.</t>
-  </si>
-  <si>
-    <t>А308</t>
+    <t>(Пр) Основы фин. грамотности</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Среда</t>
   </si>
   <si>
-    <t>(Пр) Основы интернет-маркетинга</t>
-  </si>
-  <si>
-    <t>Викулина В.В.</t>
-  </si>
-  <si>
-    <t>У206</t>
-  </si>
-  <si>
-    <t>(ТО) История</t>
-  </si>
-  <si>
-    <t>У704</t>
+    <t>(ТО) Эконом.и анализ финанс.-хоз.деят.торг.орг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леонова И.В. </t>
+  </si>
+  <si>
+    <t>У604</t>
   </si>
   <si>
     <t>Кузовлева Н.Н.</t>
@@ -105,52 +102,70 @@
     <t>М212</t>
   </si>
   <si>
-    <t>Дмитриева М.А.</t>
-  </si>
-  <si>
-    <t>А307</t>
+    <t>(ТО) Основы деловой коммуникации</t>
+  </si>
+  <si>
+    <t>Шубина Ю.В</t>
+  </si>
+  <si>
+    <t>У607</t>
   </si>
   <si>
     <t>Четверг</t>
   </si>
   <si>
-    <t>(ТО) Химия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юсупова А.А. </t>
-  </si>
-  <si>
-    <t>М204</t>
-  </si>
-  <si>
-    <t>(ТО) Физика</t>
-  </si>
-  <si>
-    <t>Хомякова М.В.</t>
-  </si>
-  <si>
-    <t>У604</t>
-  </si>
-  <si>
-    <t>(ТО) Литература</t>
+    <t>(Пр) Основы деловой коммуникации</t>
+  </si>
+  <si>
+    <t>У702</t>
+  </si>
+  <si>
+    <t>(ТО) Экспл.ТТО и ОТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колесникова Н.Н. </t>
+  </si>
+  <si>
+    <t>У605</t>
+  </si>
+  <si>
+    <t>(ТО) История России</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Посуховская Л.В. </t>
+  </si>
+  <si>
+    <t>У502</t>
   </si>
   <si>
     <t>Пятница</t>
   </si>
   <si>
-    <t>(Пр) Введ. в специальность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колесникова Н.Н. </t>
-  </si>
-  <si>
-    <t>У605</t>
-  </si>
-  <si>
-    <t>(Пр) Рус.яз</t>
-  </si>
-  <si>
-    <t>(Пр) Математика</t>
+    <t>(Пр) Основы предпринимательства</t>
+  </si>
+  <si>
+    <t>(ТО) Прикладные комп.программы</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>(Пр) Эконом.и анализ финанс.-хоз.деят.торг.орг.</t>
+  </si>
+  <si>
+    <t>(Пр) Экспл.ТТО и ОТ</t>
+  </si>
+  <si>
+    <t>Четная неделя</t>
+  </si>
+  <si>
+    <t>С03</t>
+  </si>
+  <si>
+    <t>(Лаб) Экспл.ТТО и ОТ</t>
+  </si>
+  <si>
+    <t>(Пр) История России</t>
   </si>
   <si>
     <t>Час общения</t>
@@ -159,58 +174,7 @@
     <t>Яценко Д.В.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Физкультура</t>
-  </si>
-  <si>
-    <t>Габидуллина С.К.</t>
-  </si>
-  <si>
-    <t>С03</t>
-  </si>
-  <si>
-    <t>(ТО) ОБ и защиты Родины</t>
-  </si>
-  <si>
-    <t>Буркарт  М.М.</t>
-  </si>
-  <si>
-    <t>Четная неделя</t>
-  </si>
-  <si>
-    <t>(Пр) Физика</t>
-  </si>
-  <si>
-    <t>У409</t>
-  </si>
-  <si>
-    <t>(ТО) География</t>
-  </si>
-  <si>
-    <t>Вандышева Т.А.</t>
-  </si>
-  <si>
-    <t>У804</t>
-  </si>
-  <si>
-    <t>А012</t>
-  </si>
-  <si>
-    <t>У707</t>
-  </si>
-  <si>
-    <t>А103</t>
-  </si>
-  <si>
-    <t>(ТО) Биология</t>
-  </si>
-  <si>
-    <t>У907</t>
+    <t>У402</t>
   </si>
 </sst>
 </file>
@@ -410,13 +374,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -427,6 +384,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,9 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -732,19 +698,19 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -768,7 +734,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="24.95" customHeight="1">
+    <row r="2" spans="1:17" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -798,14 +764,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -814,7 +780,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
@@ -823,19 +789,19 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="M4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -852,27 +818,27 @@
         <v>5</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
@@ -881,22 +847,26 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="G6" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="M6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17">
@@ -910,27 +880,35 @@
         <v>8</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="H7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="N7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="Q7" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
@@ -939,81 +917,73 @@
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="G8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="M8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="7"/>
       <c r="B9" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="14" t="s">
+      <c r="N9" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="G10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="M10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="M10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="6">
@@ -1026,19 +996,19 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="M11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -1047,30 +1017,28 @@
     <row r="12" spans="1:17">
       <c r="A12" s="7"/>
       <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="13" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="13" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,25 +1046,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="G13" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="M13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -1105,30 +1073,30 @@
     <row r="14" spans="1:17">
       <c r="A14" s="7"/>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="11" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1136,303 +1104,350 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="G15" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
-      <c r="M15" s="6">
-        <v>4</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7"/>
       <c r="B16" s="11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="M19" s="6">
+        <v>2</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="M21" s="6">
+        <v>3</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="6">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="G17" s="6">
-        <v>4</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="N23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="G22" s="6">
-        <v>3</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="6">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="G24" s="6">
-        <v>4</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="M24" s="6">
-        <v>2</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="M25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="6">
         <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
+      <c r="G26" s="6">
+        <v>2</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
       <c r="M26" s="6">
-        <v>3</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
       <c r="P26" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="7"/>
       <c r="B27" s="11" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1440,363 +1455,244 @@
         <v>4</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="6">
+        <v>3</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="7"/>
       <c r="B29" s="11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="G30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="M30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="G30" s="6">
+        <v>4</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="M30" s="6">
+        <v>4</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="M31" s="6">
-        <v>1</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="7"/>
-      <c r="B32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="6">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="G33" s="6">
-        <v>2</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="M33" s="6">
-        <v>2</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="7"/>
-      <c r="B34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="6">
-        <v>3</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-      <c r="G35" s="6">
-        <v>3</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="M35" s="6">
-        <v>3</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="13" t="s">
+      <c r="A32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="6">
-        <v>4</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="7"/>
-      <c r="B38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13" t="s">
-        <v>11</v>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="N26:O26"/>
+  <mergeCells count="121">
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="M10:Q10"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="G10:K10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A6:A7"/>
@@ -1810,11 +1706,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
